--- a/vReport/vReport/bin/Debug/Tmpl.xlsx
+++ b/vReport/vReport/bin/Debug/Tmpl.xlsx
@@ -2884,10 +2884,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15824957953315208"/>
-          <c:y val="4.3933083130963807E-2"/>
+          <c:x val="0.15824957953315211"/>
+          <c:y val="4.3933083130963814E-2"/>
           <c:w val="0.60638246703180354"/>
-          <c:h val="0.93082542252312039"/>
+          <c:h val="0.93082542252312073"/>
         </c:manualLayout>
       </c:layout>
       <c:radarChart>
@@ -2983,11 +2983,11 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="86584704"/>
-        <c:axId val="126313600"/>
+        <c:axId val="76471680"/>
+        <c:axId val="111436928"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="86584704"/>
+        <c:axId val="76471680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2995,14 +2995,14 @@
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126313600"/>
+        <c:crossAx val="111436928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126313600"/>
+        <c:axId val="111436928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3013,7 +3013,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86584704"/>
+        <c:crossAx val="76471680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -3029,12 +3029,14 @@
   </c:chart>
   <c:spPr>
     <a:ln>
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="bg2"/>
+      </a:solidFill>
     </a:ln>
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3050,10 +3052,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15824957953315213"/>
+          <c:x val="0.15824957953315216"/>
           <c:y val="4.3933083130963814E-2"/>
           <c:w val="0.60638246703180354"/>
-          <c:h val="0.93082542252312095"/>
+          <c:h val="0.93082542252312117"/>
         </c:manualLayout>
       </c:layout>
       <c:radarChart>
@@ -3155,11 +3157,11 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="157611520"/>
-        <c:axId val="157613440"/>
+        <c:axId val="143586816"/>
+        <c:axId val="143588736"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="157611520"/>
+        <c:axId val="143586816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3167,14 +3169,14 @@
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157613440"/>
+        <c:crossAx val="143588736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157613440"/>
+        <c:axId val="143588736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3185,7 +3187,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157611520"/>
+        <c:crossAx val="143586816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -3201,12 +3203,14 @@
   </c:chart>
   <c:spPr>
     <a:ln>
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="bg2"/>
+      </a:solidFill>
     </a:ln>
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3222,10 +3226,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15824957953315219"/>
+          <c:x val="0.15824957953315222"/>
           <c:y val="4.3933083130963814E-2"/>
           <c:w val="0.60638246703180354"/>
-          <c:h val="0.9308254225231215"/>
+          <c:h val="0.93082542252312184"/>
         </c:manualLayout>
       </c:layout>
       <c:radarChart>
@@ -3333,11 +3337,11 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="100101120"/>
-        <c:axId val="100111104"/>
+        <c:axId val="71683072"/>
+        <c:axId val="71766784"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="100101120"/>
+        <c:axId val="71683072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3345,14 +3349,14 @@
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100111104"/>
+        <c:crossAx val="71766784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100111104"/>
+        <c:axId val="71766784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3363,7 +3367,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100101120"/>
+        <c:crossAx val="71683072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -3379,12 +3383,14 @@
   </c:chart>
   <c:spPr>
     <a:ln>
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="bg2"/>
+      </a:solidFill>
     </a:ln>
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3400,10 +3406,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15824957953315225"/>
+          <c:x val="0.15824957953315227"/>
           <c:y val="4.3933083130963814E-2"/>
           <c:w val="0.60638246703180354"/>
-          <c:h val="0.93082542252312206"/>
+          <c:h val="0.93082542252312239"/>
         </c:manualLayout>
       </c:layout>
       <c:radarChart>
@@ -3511,11 +3517,11 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="111092096"/>
-        <c:axId val="111093632"/>
+        <c:axId val="71811456"/>
+        <c:axId val="71812992"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="111092096"/>
+        <c:axId val="71811456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3523,14 +3529,14 @@
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111093632"/>
+        <c:crossAx val="71812992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111093632"/>
+        <c:axId val="71812992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3541,7 +3547,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111092096"/>
+        <c:crossAx val="71811456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -3557,12 +3563,14 @@
   </c:chart>
   <c:spPr>
     <a:ln>
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="bg2"/>
+      </a:solidFill>
     </a:ln>
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3578,10 +3586,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1582495795331523"/>
+          <c:x val="0.15824957953315233"/>
           <c:y val="4.3933083130963814E-2"/>
           <c:w val="0.60638246703180354"/>
-          <c:h val="0.93082542252312273"/>
+          <c:h val="0.93082542252312295"/>
         </c:manualLayout>
       </c:layout>
       <c:radarChart>
@@ -3689,11 +3697,11 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="111179264"/>
-        <c:axId val="111180800"/>
+        <c:axId val="76101120"/>
+        <c:axId val="76102656"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="111179264"/>
+        <c:axId val="76101120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3701,14 +3709,14 @@
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111180800"/>
+        <c:crossAx val="76102656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111180800"/>
+        <c:axId val="76102656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3719,7 +3727,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111179264"/>
+        <c:crossAx val="76101120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -3735,12 +3743,14 @@
   </c:chart>
   <c:spPr>
     <a:ln>
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="bg2"/>
+      </a:solidFill>
     </a:ln>
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3756,10 +3766,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15824957953315236"/>
+          <c:x val="0.15824957953315238"/>
           <c:y val="4.3933083130963814E-2"/>
           <c:w val="0.60638246703180354"/>
-          <c:h val="0.93082542252312317"/>
+          <c:h val="0.9308254225231235"/>
         </c:manualLayout>
       </c:layout>
       <c:radarChart>
@@ -3867,11 +3877,11 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="111237760"/>
-        <c:axId val="111239552"/>
+        <c:axId val="76458624"/>
+        <c:axId val="76476800"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="111237760"/>
+        <c:axId val="76458624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3879,14 +3889,14 @@
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111239552"/>
+        <c:crossAx val="76476800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111239552"/>
+        <c:axId val="76476800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3897,7 +3907,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111237760"/>
+        <c:crossAx val="76458624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -3913,12 +3923,14 @@
   </c:chart>
   <c:spPr>
     <a:ln>
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="bg2"/>
+      </a:solidFill>
     </a:ln>
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3934,10 +3946,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15824957953315236"/>
+          <c:x val="0.15824957953315238"/>
           <c:y val="4.3933083130963814E-2"/>
           <c:w val="0.60638246703180354"/>
-          <c:h val="0.93082542252312317"/>
+          <c:h val="0.9308254225231235"/>
         </c:manualLayout>
       </c:layout>
       <c:radarChart>
@@ -4045,11 +4057,11 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="126058496"/>
-        <c:axId val="126060032"/>
+        <c:axId val="97980416"/>
+        <c:axId val="97981952"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="126058496"/>
+        <c:axId val="97980416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4057,14 +4069,14 @@
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126060032"/>
+        <c:crossAx val="97981952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126060032"/>
+        <c:axId val="97981952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4075,7 +4087,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126058496"/>
+        <c:crossAx val="97980416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -4091,12 +4103,14 @@
   </c:chart>
   <c:spPr>
     <a:ln>
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="bg2"/>
+      </a:solidFill>
     </a:ln>
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4115,7 +4129,7 @@
           <c:x val="0.15824957953315241"/>
           <c:y val="4.3933083130963814E-2"/>
           <c:w val="0.60638246703180354"/>
-          <c:h val="0.93082542252312384"/>
+          <c:h val="0.93082542252312406"/>
         </c:manualLayout>
       </c:layout>
       <c:radarChart>
@@ -4223,11 +4237,11 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="126445056"/>
-        <c:axId val="126446592"/>
+        <c:axId val="98043392"/>
+        <c:axId val="98044928"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="126445056"/>
+        <c:axId val="98043392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4235,14 +4249,14 @@
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126446592"/>
+        <c:crossAx val="98044928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126446592"/>
+        <c:axId val="98044928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4253,7 +4267,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126445056"/>
+        <c:crossAx val="98043392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -4269,12 +4283,14 @@
   </c:chart>
   <c:spPr>
     <a:ln>
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="bg2"/>
+      </a:solidFill>
     </a:ln>
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4314,10 +4330,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1263936" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -4327,7 +4343,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5743575" y="514350"/>
+          <a:off x="4981575" y="942975"/>
           <a:ext cx="1263936" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4374,10 +4390,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1454244" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -4387,7 +4403,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7591425" y="1714500"/>
+          <a:off x="7686675" y="1990725"/>
           <a:ext cx="1454244" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4427,9 +4443,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="647293" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -4439,7 +4455,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7591425" y="4048125"/>
+          <a:off x="7410450" y="4143375"/>
           <a:ext cx="647293" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4501,10 +4517,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="990600" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -4514,7 +4530,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4019550" y="4048125"/>
+          <a:off x="4295775" y="4105275"/>
           <a:ext cx="990600" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4567,9 +4583,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="885824" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -4579,7 +4595,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4124326" y="1714500"/>
+          <a:off x="4076701" y="1990725"/>
           <a:ext cx="885824" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8677,6 +8693,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
     <mergeCell ref="B42:B46"/>
     <mergeCell ref="C42:C46"/>
     <mergeCell ref="B47:B51"/>
@@ -8687,12 +8709,6 @@
     <mergeCell ref="C32:C36"/>
     <mergeCell ref="B37:B41"/>
     <mergeCell ref="C37:C41"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11661,7 +11677,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11721,7 +11737,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B6"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11789,7 +11805,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11865,7 +11881,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B7"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11941,7 +11957,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12017,7 +12033,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B7"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12093,7 +12109,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B7"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12169,7 +12185,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B7"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
